--- a/DRSERVICE_2025/All_Dr_Service_Elbrit Bangalore_Jun-2025.xlsx
+++ b/DRSERVICE_2025/All_Dr_Service_Elbrit Bangalore_Jun-2025.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="494">
   <si>
     <t xml:space="preserve">Service ID</t>
   </si>
@@ -1158,6 +1158,12 @@
   </si>
   <si>
     <t xml:space="preserve">Niteesh Kumar Pal(E00906)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akhilesh Kumar (E01009)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shubham Pandey (E01016)</t>
   </si>
   <si>
     <t xml:space="preserve">DivisionName</t>
@@ -1692,34 +1698,34 @@
         <v>368</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="14.25" customHeight="1">
@@ -1757,34 +1763,34 @@
         <v>369</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="R2" s="3">
         <v>75000.00</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="14.25" customHeight="1">
@@ -1822,34 +1828,34 @@
         <v>370</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="R3" s="3">
         <v>100000.00</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="14.25" customHeight="1">
@@ -1887,34 +1893,34 @@
         <v>371</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="R4" s="3">
         <v>50000.00</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="14.25" customHeight="1">
@@ -1952,34 +1958,34 @@
         <v>369</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="R5" s="3">
         <v>40247.00</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="14.25" customHeight="1">
@@ -2017,34 +2023,34 @@
         <v>372</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="R6" s="3">
         <v>150000.00</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="14.25" customHeight="1">
@@ -2082,34 +2088,34 @@
         <v>373</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="R7" s="3">
         <v>29800.00</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="14.25" customHeight="1">
@@ -2147,34 +2153,34 @@
         <v>374</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="R8" s="3">
         <v>48223.00</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="14.25" customHeight="1">
@@ -2212,34 +2218,34 @@
         <v>375</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="R9" s="3">
         <v>57001.00</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="25.5" customHeight="1">
@@ -2277,34 +2283,34 @@
         <v>376</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="R10" s="3">
         <v>18300.00</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="25.5" customHeight="1">
@@ -2342,34 +2348,34 @@
         <v>376</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="R11" s="3">
         <v>18500.00</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="14.25" customHeight="1">
@@ -2407,34 +2413,34 @@
         <v>376</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="R12" s="3">
         <v>20000.00</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="36.75" customHeight="1">
@@ -2472,34 +2478,34 @@
         <v>374</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="R13" s="3">
         <v>10000.00</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="25.5" customHeight="1">
@@ -2537,34 +2543,34 @@
         <v>374</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="R14" s="3">
         <v>10000.00</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="25.5" customHeight="1">
@@ -2602,34 +2608,34 @@
         <v>374</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="R15" s="3">
         <v>30000.00</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="25.5" customHeight="1">
@@ -2667,34 +2673,34 @@
         <v>374</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="R16" s="3">
         <v>10000.00</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="14.25" customHeight="1">
@@ -2732,34 +2738,34 @@
         <v>375</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="R17" s="3">
         <v>20000.00</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="14.25" customHeight="1">
@@ -2797,34 +2803,34 @@
         <v>375</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="R18" s="3">
         <v>15000.00</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="14.25" customHeight="1">
@@ -2862,34 +2868,34 @@
         <v>375</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="R19" s="3">
         <v>40000.00</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="14.25" customHeight="1">
@@ -2927,34 +2933,34 @@
         <v>377</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="R20" s="3">
         <v>40000.00</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="25.5" customHeight="1">
@@ -2992,34 +2998,34 @@
         <v>377</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="R21" s="3">
         <v>6800.00</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="25.5" customHeight="1">
@@ -3057,34 +3063,34 @@
         <v>372</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="R22" s="3">
         <v>15100.00</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="25.5" customHeight="1">
@@ -3122,34 +3128,34 @@
         <v>376</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="R23" s="3">
         <v>10300.00</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="U23" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="14.25" customHeight="1">
@@ -3187,34 +3193,34 @@
         <v>374</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="R24" s="3">
         <v>10000.00</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="U24" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="25.5" customHeight="1">
@@ -3252,34 +3258,34 @@
         <v>375</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="R25" s="3">
         <v>20000.00</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="U25" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="25.5" customHeight="1">
@@ -3317,34 +3323,34 @@
         <v>378</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="R26" s="3">
         <v>3000.00</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="14.25" customHeight="1">
@@ -3382,34 +3388,34 @@
         <v>374</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="R27" s="3">
         <v>15000.00</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="U27" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="25.5" customHeight="1">
@@ -3447,34 +3453,34 @@
         <v>376</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="R28" s="3">
         <v>12700.00</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="U28" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="25.5" customHeight="1">
@@ -3512,34 +3518,34 @@
         <v>374</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="R29" s="3">
         <v>10000.00</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="U29" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="25.5" customHeight="1">
@@ -3577,34 +3583,34 @@
         <v>379</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="R30" s="3">
         <v>10000.00</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="U30" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="25.5" customHeight="1">
@@ -3642,34 +3648,34 @@
         <v>379</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="R31" s="3">
         <v>10000.00</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="U31" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="25.5" customHeight="1">
@@ -3707,34 +3713,34 @@
         <v>374</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="R32" s="3">
         <v>5000.00</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="U32" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="33" spans="1:21" ht="14.25" customHeight="1">
@@ -3772,34 +3778,34 @@
         <v>374</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="R33" s="3">
         <v>30000.00</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="U33" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="34" spans="1:21" ht="14.25" customHeight="1">
@@ -3837,34 +3843,34 @@
         <v>374</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="R34" s="3">
         <v>15000.00</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="U34" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="35" spans="1:21" ht="25.5" customHeight="1">
@@ -3902,34 +3908,34 @@
         <v>373</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="R35" s="3">
         <v>10000.00</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="U35" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="25.5" customHeight="1">
@@ -3967,34 +3973,34 @@
         <v>373</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="R36" s="3">
         <v>20000.00</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="U36" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="37" spans="1:21" ht="25.5" customHeight="1">
@@ -4032,34 +4038,34 @@
         <v>379</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="R37" s="3">
         <v>10000.00</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="T37" s="2" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="U37" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="38" spans="1:21" ht="14.25" customHeight="1">
@@ -4097,34 +4103,34 @@
         <v>369</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="R38" s="3">
         <v>50000.00</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="U38" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="39" spans="1:21" ht="25.5" customHeight="1">
@@ -4162,34 +4168,34 @@
         <v>375</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="R39" s="3">
         <v>40000.00</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="T39" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="U39" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="40" spans="1:21" ht="25.5" customHeight="1">
@@ -4227,34 +4233,34 @@
         <v>377</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="R40" s="3">
         <v>20000.00</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="U40" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="41" spans="1:21" ht="25.5" customHeight="1">
@@ -4292,34 +4298,34 @@
         <v>378</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="R41" s="3">
         <v>6855.00</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="U41" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="42" spans="1:21" ht="25.5" customHeight="1">
@@ -4357,34 +4363,34 @@
         <v>372</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="R42" s="3">
         <v>5828.00</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="U42" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="43" spans="1:21" ht="14.25" customHeight="1">
@@ -4422,34 +4428,34 @@
         <v>373</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="R43" s="3">
         <v>50000.00</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="U43" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="44" spans="1:21" ht="14.25" customHeight="1">
@@ -4487,34 +4493,34 @@
         <v>373</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q44" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="R44" s="3">
         <v>10000.00</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="U44" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="45" spans="1:21" ht="14.25" customHeight="1">
@@ -4552,34 +4558,34 @@
         <v>379</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="R45" s="3">
         <v>50000.00</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="U45" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="46" spans="1:21" ht="14.25" customHeight="1">
@@ -4617,34 +4623,34 @@
         <v>379</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q46" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="R46" s="3">
         <v>50000.00</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="U46" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="47" spans="1:21" ht="25.5" customHeight="1">
@@ -4682,34 +4688,34 @@
         <v>374</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="R47" s="3">
         <v>10360.00</v>
       </c>
       <c r="S47" s="2" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="T47" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="U47" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="48" spans="1:21" ht="14.25" customHeight="1">
@@ -4747,34 +4753,34 @@
         <v>377</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="R48" s="3">
         <v>100000.00</v>
       </c>
       <c r="S48" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="T48" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="U48" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="49" spans="1:21" ht="14.25" customHeight="1">
@@ -4812,34 +4818,34 @@
         <v>379</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="R49" s="3">
         <v>50000.00</v>
       </c>
       <c r="S49" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="T49" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="U49" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="50" spans="1:21" ht="25.5" customHeight="1">
@@ -4877,34 +4883,34 @@
         <v>371</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="R50" s="3">
         <v>5594.00</v>
       </c>
       <c r="S50" s="2" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="T50" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="U50" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="51" spans="1:21" ht="14.25" customHeight="1">
@@ -4942,34 +4948,34 @@
         <v>369</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="R51" s="3">
         <v>15000.00</v>
       </c>
       <c r="S51" s="2" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="T51" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="U51" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="52" spans="1:21" ht="14.25" customHeight="1">
@@ -5007,34 +5013,34 @@
         <v>375</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="R52" s="3">
         <v>15000.00</v>
       </c>
       <c r="S52" s="2" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="T52" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="U52" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="53" spans="1:21" ht="25.5" customHeight="1">
@@ -5072,34 +5078,34 @@
         <v>378</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="R53" s="3">
         <v>25000.00</v>
       </c>
       <c r="S53" s="2" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="T53" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="U53" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="54" spans="1:21" ht="25.5" customHeight="1">
@@ -5137,34 +5143,34 @@
         <v>372</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="R54" s="3">
         <v>20000.00</v>
       </c>
       <c r="S54" s="2" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="T54" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="U54" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="55" spans="1:21" ht="25.5" customHeight="1">
@@ -5202,34 +5208,34 @@
         <v>373</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q55" s="2" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="R55" s="3">
         <v>15000.00</v>
       </c>
       <c r="S55" s="2" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="T55" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="U55" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="56" spans="1:21" ht="14.25" customHeight="1">
@@ -5267,34 +5273,34 @@
         <v>373</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q56" s="2" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="R56" s="3">
         <v>15000.00</v>
       </c>
       <c r="S56" s="2" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="T56" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="U56" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="57" spans="1:21" ht="25.5" customHeight="1">
@@ -5332,34 +5338,34 @@
         <v>375</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q57" s="2" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="R57" s="3">
         <v>20000.00</v>
       </c>
       <c r="S57" s="2" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="T57" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="U57" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="58" spans="1:21" ht="14.25" customHeight="1">
@@ -5397,34 +5403,34 @@
         <v>369</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q58" s="2" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="R58" s="3">
         <v>1845.00</v>
       </c>
       <c r="S58" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="T58" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="U58" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="59" spans="1:21" ht="14.25" customHeight="1">
@@ -5462,34 +5468,34 @@
         <v>369</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q59" s="2" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="R59" s="3">
         <v>517.00</v>
       </c>
       <c r="S59" s="2" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="T59" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="U59" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="60" spans="1:21" ht="14.25" customHeight="1">
@@ -5527,34 +5533,34 @@
         <v>370</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P60" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q60" s="2" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="R60" s="3">
         <v>265.00</v>
       </c>
       <c r="S60" s="2" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="T60" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="U60" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="61" spans="1:21" ht="14.25" customHeight="1">
@@ -5592,34 +5598,34 @@
         <v>374</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P61" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q61" s="2" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="R61" s="3">
         <v>1673.00</v>
       </c>
       <c r="S61" s="2" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="T61" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="U61" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="62" spans="1:21" ht="14.25" customHeight="1">
@@ -5657,34 +5663,34 @@
         <v>378</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P62" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q62" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="R62" s="3">
         <v>1421.00</v>
       </c>
       <c r="S62" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="T62" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="U62" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="63" spans="1:21" ht="14.25" customHeight="1">
@@ -5722,34 +5728,34 @@
         <v>375</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q63" s="2" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="R63" s="3">
         <v>500.00</v>
       </c>
       <c r="S63" s="2" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="T63" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="U63" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="64" spans="1:21" ht="25.5" customHeight="1">
@@ -5787,34 +5793,34 @@
         <v>380</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P64" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q64" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="R64" s="3">
         <v>5000.00</v>
       </c>
       <c r="S64" s="2" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="T64" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="U64" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="65" spans="1:21" ht="25.5" customHeight="1">
@@ -5852,34 +5858,34 @@
         <v>380</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P65" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q65" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="R65" s="3">
         <v>5000.00</v>
       </c>
       <c r="S65" s="2" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="T65" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="U65" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="66" spans="1:21" ht="25.5" customHeight="1">
@@ -5917,34 +5923,34 @@
         <v>380</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P66" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q66" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="R66" s="3">
         <v>5000.00</v>
       </c>
       <c r="S66" s="2" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="T66" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="U66" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="67" spans="1:21" ht="25.5" customHeight="1">
@@ -5982,34 +5988,34 @@
         <v>380</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P67" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q67" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="R67" s="3">
         <v>30000.00</v>
       </c>
       <c r="S67" s="2" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="T67" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="U67" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="68" spans="1:21" ht="25.5" customHeight="1">
@@ -6047,34 +6053,34 @@
         <v>380</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="O68" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P68" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q68" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="R68" s="3">
         <v>5000.00</v>
       </c>
       <c r="S68" s="2" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="T68" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="U68" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="69" spans="1:21" ht="25.5" customHeight="1">
@@ -6112,34 +6118,34 @@
         <v>380</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="O69" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P69" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q69" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="R69" s="3">
         <v>5000.00</v>
       </c>
       <c r="S69" s="2" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="T69" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="U69" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="70" spans="1:21" ht="25.5" customHeight="1">
@@ -6177,34 +6183,34 @@
         <v>380</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="O70" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P70" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q70" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="R70" s="3">
         <v>5000.00</v>
       </c>
       <c r="S70" s="2" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="T70" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="U70" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="71" spans="1:21" ht="25.5" customHeight="1">
@@ -6242,34 +6248,34 @@
         <v>380</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="O71" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P71" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q71" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="R71" s="3">
         <v>5000.00</v>
       </c>
       <c r="S71" s="2" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="T71" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="U71" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="72" spans="1:21" ht="14.25" customHeight="1">
@@ -6307,34 +6313,34 @@
         <v>380</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="O72" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P72" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q72" s="2" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="R72" s="3">
         <v>10000.00</v>
       </c>
       <c r="S72" s="2" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="T72" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="U72" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="73" spans="1:21" ht="25.5" customHeight="1">
@@ -6372,34 +6378,34 @@
         <v>381</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="O73" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P73" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q73" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="R73" s="3">
         <v>15000.00</v>
       </c>
       <c r="S73" s="2" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="T73" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="U73" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="74" spans="1:21" ht="25.5" customHeight="1">
@@ -6437,34 +6443,34 @@
         <v>381</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="O74" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P74" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q74" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="R74" s="3">
         <v>15000.00</v>
       </c>
       <c r="S74" s="2" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="T74" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="U74" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="75" spans="1:21" ht="25.5" customHeight="1">
@@ -6502,34 +6508,34 @@
         <v>382</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="O75" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P75" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q75" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="R75" s="3">
         <v>15000.00</v>
       </c>
       <c r="S75" s="2" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="T75" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="U75" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="76" spans="1:21" ht="14.25" customHeight="1">
@@ -6564,37 +6570,37 @@
         <v>367</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="O76" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P76" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q76" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="R76" s="3">
         <v>30000.00</v>
       </c>
       <c r="S76" s="2" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="T76" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="U76" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="77" spans="1:21" ht="25.5" customHeight="1">
@@ -6629,37 +6635,37 @@
         <v>367</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="O77" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P77" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q77" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="R77" s="3">
         <v>10000.00</v>
       </c>
       <c r="S77" s="2" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="T77" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="U77" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="78" spans="1:21" ht="25.5" customHeight="1">
@@ -6694,37 +6700,37 @@
         <v>367</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="O78" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P78" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q78" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="R78" s="3">
         <v>10000.00</v>
       </c>
       <c r="S78" s="2" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="T78" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="U78" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="79" spans="1:21" ht="25.5" customHeight="1">
@@ -6762,34 +6768,34 @@
         <v>382</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="O79" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P79" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q79" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="R79" s="3">
         <v>10000.00</v>
       </c>
       <c r="S79" s="2" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="T79" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="U79" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="80" spans="1:21" ht="25.5" customHeight="1">
@@ -6827,34 +6833,34 @@
         <v>382</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="O80" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P80" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q80" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="R80" s="3">
         <v>10000.00</v>
       </c>
       <c r="S80" s="2" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="T80" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="U80" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="81" spans="1:21" ht="25.5" customHeight="1">
@@ -6892,34 +6898,34 @@
         <v>382</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="O81" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P81" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q81" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="R81" s="3">
         <v>10000.00</v>
       </c>
       <c r="S81" s="2" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="T81" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="U81" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="82" spans="1:21" ht="25.5" customHeight="1">
@@ -6957,34 +6963,34 @@
         <v>382</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="O82" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P82" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q82" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="R82" s="3">
         <v>10000.00</v>
       </c>
       <c r="S82" s="2" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="T82" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="U82" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="83" spans="1:21" ht="25.5" customHeight="1">
@@ -7022,34 +7028,34 @@
         <v>382</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="O83" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P83" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q83" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="R83" s="3">
         <v>10000.00</v>
       </c>
       <c r="S83" s="2" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="T83" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="U83" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="84" spans="1:21" ht="14.25" customHeight="1">
@@ -7087,34 +7093,34 @@
         <v>380</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="O84" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P84" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q84" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="R84" s="3">
         <v>50000.00</v>
       </c>
       <c r="S84" s="2" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="T84" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="U84" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
   </sheetData>
